--- a/excel/finished/wg8#高炉/出铁统计报表/8高炉炉渣碱度合格率精益统计表.xlsx
+++ b/excel/finished/wg8#高炉/出铁统计报表/8高炉炉渣碱度合格率精益统计表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\wg-steel\excel\finished\wg8#高炉\出铁统计报表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D2A3B-1684-4002-B01F-154E2F46FE12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C67C48-B809-49FD-94CF-ACDF957E0939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="碱度合格率（月）" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
   <si>
     <t>月</t>
   </si>
@@ -126,18 +126,6 @@
     <t>铁次</t>
   </si>
   <si>
-    <t>上旬</t>
-  </si>
-  <si>
-    <t>中旬</t>
-  </si>
-  <si>
-    <t>下旬</t>
-  </si>
-  <si>
-    <t>全月</t>
-  </si>
-  <si>
     <t>月度分析</t>
   </si>
   <si>
@@ -159,71 +147,312 @@
     <t>本期母项</t>
   </si>
   <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>全年</t>
-  </si>
-  <si>
     <t>八高炉炉渣碱度合格率精益管理小组月推进表（%当前月份%）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>%月份%</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>母项</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>八高炉碱度合格率精益管理小组年推进表（%当前年份%）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>目标值</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标值</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上旬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中旬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下旬</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标值</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子项</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>母项</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子项</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>母项</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十一月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>十二月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全年</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -237,7 +466,7 @@
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,36 +545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="21"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="subscript"/>
       <sz val="12"/>
@@ -364,6 +563,69 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="21"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -777,7 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,21 +1062,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -833,9 +1086,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,112 +1095,139 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="10" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1027,13 +1304,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2771,2797 +3045,2797 @@
   <dimension ref="B1:Y59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="6.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="1" customWidth="1"/>
-    <col min="5" max="24" width="7.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="55.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
+    <col min="5" max="24" width="7.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="55.625" style="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-    </row>
-    <row r="2" spans="2:25" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="1" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+    </row>
+    <row r="2" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="68" t="s">
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71" t="s">
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="77" t="s">
+      <c r="X3" s="76"/>
+      <c r="Y3" s="82" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="69"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="72" t="s">
+    <row r="4" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="74"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72" t="s">
+      <c r="N4" s="77"/>
+      <c r="O4" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72" t="s">
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72" t="s">
+      <c r="R4" s="77"/>
+      <c r="S4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72" t="s">
+      <c r="T4" s="77"/>
+      <c r="U4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72" t="s">
+      <c r="V4" s="77"/>
+      <c r="W4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="78"/>
-    </row>
-    <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="69"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="18" t="s">
+      <c r="X4" s="77"/>
+      <c r="Y4" s="83"/>
+    </row>
+    <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="74"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="W5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="78"/>
-    </row>
-    <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70"/>
-      <c r="C6" s="20" t="s">
+      <c r="Y5" s="83"/>
+    </row>
+    <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="75"/>
+      <c r="C6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="22" t="s">
+      <c r="S6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="22" t="s">
+      <c r="U6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="20" t="s">
+      <c r="X6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="79"/>
-    </row>
-    <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="35"/>
-    </row>
-    <row r="8" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="84"/>
+    </row>
+    <row r="7" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="53"/>
+    </row>
+    <row r="8" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="23">
         <v>1</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="39" t="str">
+      <c r="C8" s="47"/>
+      <c r="D8" s="54" t="str">
         <f>IF(ISERROR(F8/G8),"",F8/G8*100)</f>
         <v/>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E8" s="55" t="str">
         <f>IF(ISERROR(D8/C8),"",IF(D8&gt;=C8,"√","×"))</f>
         <v/>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="42" t="str">
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="56" t="str">
         <f t="shared" ref="H8:H40" si="0">IF(ISERROR(G8/F8),"",G8-F8)</f>
         <v/>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="47">
+      <c r="I8" s="58"/>
+      <c r="J8" s="59">
         <f>IF(ISERROR(I8/$H8),0,I8/$H8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="47">
+      <c r="K8" s="24"/>
+      <c r="L8" s="59">
         <f>IF(ISERROR(K8/$H8),0,K8/$H8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="25"/>
-      <c r="N8" s="47">
+      <c r="N8" s="59">
         <f>IF(ISERROR(M8/$H8),0,M8/$H8)</f>
         <v>0</v>
       </c>
       <c r="O8" s="25"/>
-      <c r="P8" s="47">
+      <c r="P8" s="59">
         <f t="shared" ref="P8:P28" si="1">IF(ISERROR(O8/$H8),0,O8/$H8)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="25"/>
-      <c r="R8" s="47">
+      <c r="R8" s="59">
         <f t="shared" ref="R8:R17" si="2">IF(ISERROR(Q8/$H8),0,Q8/$H8)</f>
         <v>0</v>
       </c>
       <c r="S8" s="25"/>
-      <c r="T8" s="47">
+      <c r="T8" s="59">
         <f t="shared" ref="T8:T17" si="3">IF(ISERROR(S8/$H8),0,S8/$H8)</f>
         <v>0</v>
       </c>
       <c r="U8" s="25"/>
-      <c r="V8" s="47">
+      <c r="V8" s="59">
         <f t="shared" ref="V8:V17" si="4">IF(ISERROR(U8/$H8),0,U8/$H8)</f>
         <v>0</v>
       </c>
       <c r="W8" s="25"/>
-      <c r="X8" s="47">
+      <c r="X8" s="59">
         <f t="shared" ref="X8:X17" si="5">IF(ISERROR(W8/$H8),0,W8/$H8)</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="36"/>
-    </row>
-    <row r="9" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="26"/>
+    </row>
+    <row r="9" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="23">
         <v>2</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="39" t="str">
+      <c r="C9" s="47"/>
+      <c r="D9" s="54" t="str">
         <f>IF(ISERROR(F9/G9),"",F9/G9*100)</f>
         <v/>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E9" s="55" t="str">
         <f>IF(ISERROR(D9/C9),"",IF(D9&gt;=C9,"√","×"))</f>
         <v/>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="42" t="str">
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="47">
+      <c r="I9" s="58"/>
+      <c r="J9" s="59">
         <f t="shared" ref="J9:J40" si="6">IF(ISERROR(I9/$H9),0,I9/$H9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="47">
+      <c r="K9" s="24"/>
+      <c r="L9" s="59">
         <f t="shared" ref="L9:L40" si="7">IF(ISERROR(K9/$H9),0,K9/$H9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="25"/>
-      <c r="N9" s="47">
+      <c r="N9" s="59">
         <f t="shared" ref="N9:N40" si="8">IF(ISERROR(M9/$H9),0,M9/$H9)</f>
         <v>0</v>
       </c>
       <c r="O9" s="25"/>
-      <c r="P9" s="47">
+      <c r="P9" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="25"/>
-      <c r="R9" s="47">
+      <c r="R9" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S9" s="25"/>
-      <c r="T9" s="47">
+      <c r="T9" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U9" s="25"/>
-      <c r="V9" s="47">
+      <c r="V9" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W9" s="25"/>
-      <c r="X9" s="47">
+      <c r="X9" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="37"/>
-    </row>
-    <row r="10" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y9" s="27"/>
+    </row>
+    <row r="10" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="23">
         <v>3</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="39" t="str">
+      <c r="C10" s="47"/>
+      <c r="D10" s="54" t="str">
         <f t="shared" ref="D10:D41" si="9">IF(ISERROR(F10/G10),"",F10/G10*100)</f>
         <v/>
       </c>
-      <c r="E10" s="40" t="str">
+      <c r="E10" s="55" t="str">
         <f>IF(ISERROR(D10/C10),"",IF(D10&gt;=C10,"√","×"))</f>
         <v/>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42" t="str">
+      <c r="F10" s="56"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="47">
+      <c r="I10" s="58"/>
+      <c r="J10" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="47">
+      <c r="K10" s="24"/>
+      <c r="L10" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="N10" s="47">
+      <c r="N10" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O10" s="25"/>
-      <c r="P10" s="47">
+      <c r="P10" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="25"/>
-      <c r="R10" s="47">
+      <c r="R10" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S10" s="25"/>
-      <c r="T10" s="47">
+      <c r="T10" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U10" s="25"/>
-      <c r="V10" s="47">
+      <c r="V10" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10" s="25"/>
-      <c r="X10" s="47">
+      <c r="X10" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="36"/>
-    </row>
-    <row r="11" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="23">
         <v>4</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="39" t="str">
+      <c r="C11" s="47"/>
+      <c r="D11" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E11" s="40" t="str">
+      <c r="E11" s="55" t="str">
         <f t="shared" ref="E11:E41" si="10">IF(ISERROR(D11/C11),"",IF(D11&gt;=C11,"√","×"))</f>
         <v/>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="42" t="str">
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I11" s="25"/>
-      <c r="J11" s="47">
+      <c r="J11" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="47">
+      <c r="K11" s="24"/>
+      <c r="L11" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M11" s="25"/>
-      <c r="N11" s="47">
+      <c r="N11" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O11" s="25"/>
-      <c r="P11" s="47">
+      <c r="P11" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="25"/>
-      <c r="R11" s="47">
+      <c r="R11" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S11" s="25"/>
-      <c r="T11" s="47">
+      <c r="T11" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U11" s="25"/>
-      <c r="V11" s="47">
+      <c r="V11" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="25"/>
-      <c r="X11" s="47">
+      <c r="X11" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="36"/>
-    </row>
-    <row r="12" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="26"/>
+    </row>
+    <row r="12" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="23">
         <v>5</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="39" t="str">
+      <c r="C12" s="47"/>
+      <c r="D12" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E12" s="40" t="str">
+      <c r="E12" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="42" t="str">
+      <c r="F12" s="56"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I12" s="25"/>
-      <c r="J12" s="47">
+      <c r="J12" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="47">
+      <c r="K12" s="24"/>
+      <c r="L12" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M12" s="25"/>
-      <c r="N12" s="47">
+      <c r="N12" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O12" s="25"/>
-      <c r="P12" s="47">
+      <c r="P12" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q12" s="25"/>
-      <c r="R12" s="47">
+      <c r="R12" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S12" s="25"/>
-      <c r="T12" s="47">
+      <c r="T12" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12" s="25"/>
-      <c r="V12" s="47">
+      <c r="V12" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" s="25"/>
-      <c r="X12" s="47">
+      <c r="X12" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="36"/>
-    </row>
-    <row r="13" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y12" s="26"/>
+    </row>
+    <row r="13" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="23">
         <v>6</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="39" t="str">
+      <c r="C13" s="47"/>
+      <c r="D13" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E13" s="40" t="str">
+      <c r="E13" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="42" t="str">
+      <c r="F13" s="56"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I13" s="25"/>
-      <c r="J13" s="47">
+      <c r="J13" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="47">
+      <c r="K13" s="24"/>
+      <c r="L13" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M13" s="25"/>
-      <c r="N13" s="47">
+      <c r="N13" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O13" s="25"/>
-      <c r="P13" s="47">
+      <c r="P13" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="25"/>
-      <c r="R13" s="47">
+      <c r="R13" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S13" s="25"/>
-      <c r="T13" s="47">
+      <c r="T13" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U13" s="25"/>
-      <c r="V13" s="47">
+      <c r="V13" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" s="25"/>
-      <c r="X13" s="47">
+      <c r="X13" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="36"/>
-    </row>
-    <row r="14" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y13" s="26"/>
+    </row>
+    <row r="14" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="23">
         <v>7</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="39" t="str">
+      <c r="C14" s="47"/>
+      <c r="D14" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E14" s="40" t="str">
+      <c r="E14" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="42" t="str">
+      <c r="F14" s="56"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14" s="25"/>
-      <c r="J14" s="47">
+      <c r="J14" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="47">
+      <c r="K14" s="24"/>
+      <c r="L14" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M14" s="25"/>
-      <c r="N14" s="47">
+      <c r="N14" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O14" s="25"/>
-      <c r="P14" s="47">
+      <c r="P14" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="25"/>
-      <c r="R14" s="47">
+      <c r="R14" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S14" s="25"/>
-      <c r="T14" s="47">
+      <c r="T14" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U14" s="25"/>
-      <c r="V14" s="47">
+      <c r="V14" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W14" s="25"/>
-      <c r="X14" s="47">
+      <c r="X14" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="36"/>
-    </row>
-    <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="26"/>
+    </row>
+    <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="23">
         <v>8</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="39" t="str">
+      <c r="C15" s="47"/>
+      <c r="D15" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E15" s="40" t="str">
+      <c r="E15" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="42" t="str">
+      <c r="F15" s="56"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="47">
+      <c r="J15" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="47">
+      <c r="K15" s="24"/>
+      <c r="L15" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M15" s="25"/>
-      <c r="N15" s="47">
+      <c r="N15" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O15" s="25"/>
-      <c r="P15" s="47">
+      <c r="P15" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="25"/>
-      <c r="R15" s="47">
+      <c r="R15" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S15" s="25"/>
-      <c r="T15" s="47">
+      <c r="T15" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U15" s="25"/>
-      <c r="V15" s="47">
+      <c r="V15" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="25"/>
-      <c r="X15" s="47">
+      <c r="X15" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="36"/>
-    </row>
-    <row r="16" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y15" s="26"/>
+    </row>
+    <row r="16" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23">
         <v>9</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="39" t="str">
+      <c r="C16" s="47"/>
+      <c r="D16" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E16" s="40" t="str">
+      <c r="E16" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="42" t="str">
+      <c r="F16" s="56"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I16" s="25"/>
-      <c r="J16" s="47">
+      <c r="J16" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="47">
+      <c r="K16" s="24"/>
+      <c r="L16" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M16" s="25"/>
-      <c r="N16" s="47">
+      <c r="N16" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O16" s="25"/>
-      <c r="P16" s="47">
+      <c r="P16" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q16" s="25"/>
-      <c r="R16" s="47">
+      <c r="R16" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S16" s="25"/>
-      <c r="T16" s="47">
+      <c r="T16" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U16" s="25"/>
-      <c r="V16" s="47">
+      <c r="V16" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" s="25"/>
-      <c r="X16" s="47">
+      <c r="X16" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="36"/>
-    </row>
-    <row r="17" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="23">
         <v>10</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="39" t="str">
+      <c r="C17" s="47"/>
+      <c r="D17" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E17" s="40" t="str">
+      <c r="E17" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="42" t="str">
+      <c r="F17" s="56"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I17" s="25"/>
-      <c r="J17" s="47">
+      <c r="J17" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="47">
+      <c r="K17" s="24"/>
+      <c r="L17" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M17" s="25"/>
-      <c r="N17" s="47">
+      <c r="N17" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O17" s="25"/>
-      <c r="P17" s="47">
+      <c r="P17" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17" s="25"/>
-      <c r="R17" s="47">
+      <c r="R17" s="59">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S17" s="25"/>
-      <c r="T17" s="47">
+      <c r="T17" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U17" s="25"/>
-      <c r="V17" s="47">
+      <c r="V17" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" s="25"/>
-      <c r="X17" s="47">
+      <c r="X17" s="59">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="36"/>
-    </row>
-    <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="84" t="str">
+      <c r="Y17" s="26"/>
+    </row>
+    <row r="18" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="47" t="str">
         <f>IF(ISERROR(AVERAGE(C8:C17)),"",AVERAGE(C8:C17))</f>
         <v/>
       </c>
-      <c r="D18" s="39" t="str">
+      <c r="D18" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E18" s="40" t="str">
+      <c r="E18" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="61">
         <f>SUM(F8:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="61">
         <f t="shared" ref="G18:H18" si="11">SUM(G8:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="61">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="29">
         <f t="shared" ref="I18:W18" si="12">SUM(I8:I17)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="59">
         <f t="shared" ref="J18:J41" si="13">IF($H18=0,0,I18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="59">
         <f t="shared" ref="L18:L41" si="14">IF($H18=0,0,K18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N18" s="47">
+      <c r="N18" s="59">
         <f t="shared" ref="N18:N41" si="15">IF($H18=0,0,M18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="59">
         <f t="shared" ref="P18:P41" si="16">IF($H18=0,0,O18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="59">
         <f t="shared" ref="R18:R41" si="17">IF($H18=0,0,Q18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T18" s="47">
+      <c r="T18" s="59">
         <f t="shared" ref="T18:T41" si="18">IF($H18=0,0,S18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V18" s="47">
+      <c r="V18" s="59">
         <f t="shared" ref="V18:V41" si="19">IF($H18=0,0,U18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="W18" s="27">
+      <c r="W18" s="29">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X18" s="47">
+      <c r="X18" s="59">
         <f t="shared" ref="X18:X29" si="20">IF($H18=0,0,W18/$H18)</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="36"/>
-    </row>
-    <row r="19" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="26"/>
+    </row>
+    <row r="19" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="23">
         <v>11</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="39" t="str">
+      <c r="C19" s="47"/>
+      <c r="D19" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E19" s="40" t="str">
+      <c r="E19" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="42" t="str">
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I19" s="25"/>
-      <c r="J19" s="47">
+      <c r="J19" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="47">
+      <c r="K19" s="24"/>
+      <c r="L19" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M19" s="25"/>
-      <c r="N19" s="47">
+      <c r="N19" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O19" s="25"/>
-      <c r="P19" s="47">
+      <c r="P19" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="25"/>
-      <c r="R19" s="47">
+      <c r="R19" s="59">
         <f t="shared" ref="R19:R28" si="21">IF(ISERROR(Q19/$H19),0,Q19/$H19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="25"/>
-      <c r="T19" s="47">
+      <c r="T19" s="59">
         <f t="shared" ref="T19:T28" si="22">IF(ISERROR(S19/$H19),0,S19/$H19)</f>
         <v>0</v>
       </c>
       <c r="U19" s="25"/>
-      <c r="V19" s="47">
+      <c r="V19" s="59">
         <f t="shared" ref="V19:V28" si="23">IF(ISERROR(U19/$H19),0,U19/$H19)</f>
         <v>0</v>
       </c>
       <c r="W19" s="25"/>
-      <c r="X19" s="47">
+      <c r="X19" s="59">
         <f t="shared" ref="X19:X28" si="24">IF(ISERROR(W19/$H19),0,W19/$H19)</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="36"/>
-    </row>
-    <row r="20" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y19" s="26"/>
+    </row>
+    <row r="20" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="23">
         <v>12</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="39" t="str">
+      <c r="C20" s="47"/>
+      <c r="D20" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E20" s="40" t="str">
+      <c r="E20" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="42" t="str">
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I20" s="25"/>
-      <c r="J20" s="47">
+      <c r="J20" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="47">
+      <c r="K20" s="24"/>
+      <c r="L20" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M20" s="25"/>
-      <c r="N20" s="47">
+      <c r="N20" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O20" s="25"/>
-      <c r="P20" s="47">
+      <c r="P20" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="25"/>
-      <c r="R20" s="47">
+      <c r="R20" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S20" s="25"/>
-      <c r="T20" s="47">
+      <c r="T20" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U20" s="25"/>
-      <c r="V20" s="47">
+      <c r="V20" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W20" s="25"/>
-      <c r="X20" s="47">
+      <c r="X20" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="36"/>
-    </row>
-    <row r="21" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="26"/>
+    </row>
+    <row r="21" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="23">
         <v>13</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="39" t="str">
+      <c r="C21" s="47"/>
+      <c r="D21" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E21" s="40" t="str">
+      <c r="E21" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="42" t="str">
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I21" s="25"/>
-      <c r="J21" s="47">
+      <c r="J21" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="47">
+      <c r="K21" s="24"/>
+      <c r="L21" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M21" s="25"/>
-      <c r="N21" s="47">
+      <c r="N21" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O21" s="25"/>
-      <c r="P21" s="47">
+      <c r="P21" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="25"/>
-      <c r="R21" s="47">
+      <c r="R21" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S21" s="25"/>
-      <c r="T21" s="47">
+      <c r="T21" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U21" s="25"/>
-      <c r="V21" s="47">
+      <c r="V21" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W21" s="25"/>
-      <c r="X21" s="47">
+      <c r="X21" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="36"/>
-    </row>
-    <row r="22" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="26"/>
+    </row>
+    <row r="22" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="23">
         <v>14</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="39" t="str">
+      <c r="C22" s="47"/>
+      <c r="D22" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E22" s="40" t="str">
+      <c r="E22" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="42" t="str">
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I22" s="25"/>
-      <c r="J22" s="47">
+      <c r="J22" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="47">
+      <c r="K22" s="24"/>
+      <c r="L22" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M22" s="25"/>
-      <c r="N22" s="47">
+      <c r="N22" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O22" s="25"/>
-      <c r="P22" s="47">
+      <c r="P22" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="25"/>
-      <c r="R22" s="47">
+      <c r="R22" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S22" s="25"/>
-      <c r="T22" s="47">
+      <c r="T22" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U22" s="25"/>
-      <c r="V22" s="47">
+      <c r="V22" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W22" s="25"/>
-      <c r="X22" s="47">
+      <c r="X22" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="36"/>
-    </row>
-    <row r="23" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y22" s="26"/>
+    </row>
+    <row r="23" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="23">
         <v>15</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="39" t="str">
+      <c r="C23" s="47"/>
+      <c r="D23" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E23" s="40" t="str">
+      <c r="E23" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="42" t="str">
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I23" s="25"/>
-      <c r="J23" s="47">
+      <c r="J23" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="47">
+      <c r="K23" s="24"/>
+      <c r="L23" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M23" s="25"/>
-      <c r="N23" s="47">
+      <c r="N23" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O23" s="25"/>
-      <c r="P23" s="47">
+      <c r="P23" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="25"/>
-      <c r="R23" s="47">
+      <c r="R23" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S23" s="25"/>
-      <c r="T23" s="47">
+      <c r="T23" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U23" s="25"/>
-      <c r="V23" s="47">
+      <c r="V23" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W23" s="25"/>
-      <c r="X23" s="47">
+      <c r="X23" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="36"/>
-    </row>
-    <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y23" s="26"/>
+    </row>
+    <row r="24" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23">
         <v>16</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="39" t="str">
+      <c r="C24" s="47"/>
+      <c r="D24" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E24" s="40" t="str">
+      <c r="E24" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="42" t="str">
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="47">
+      <c r="J24" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="47">
+      <c r="K24" s="24"/>
+      <c r="L24" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M24" s="25"/>
-      <c r="N24" s="47">
+      <c r="N24" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O24" s="25"/>
-      <c r="P24" s="47">
+      <c r="P24" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="25"/>
-      <c r="R24" s="47">
+      <c r="R24" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S24" s="25"/>
-      <c r="T24" s="47">
+      <c r="T24" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U24" s="25"/>
-      <c r="V24" s="47">
+      <c r="V24" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W24" s="25"/>
-      <c r="X24" s="47">
+      <c r="X24" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="36"/>
-    </row>
-    <row r="25" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y24" s="26"/>
+    </row>
+    <row r="25" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23">
         <v>17</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="39" t="str">
+      <c r="C25" s="47"/>
+      <c r="D25" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E25" s="40" t="str">
+      <c r="E25" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="42" t="str">
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I25" s="25"/>
-      <c r="J25" s="47">
+      <c r="J25" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="47">
+      <c r="K25" s="24"/>
+      <c r="L25" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M25" s="25"/>
-      <c r="N25" s="47">
+      <c r="N25" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O25" s="25"/>
-      <c r="P25" s="47">
+      <c r="P25" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="25"/>
-      <c r="R25" s="47">
+      <c r="R25" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S25" s="25"/>
-      <c r="T25" s="47">
+      <c r="T25" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U25" s="25"/>
-      <c r="V25" s="47">
+      <c r="V25" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W25" s="25"/>
-      <c r="X25" s="47">
+      <c r="X25" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="36"/>
-    </row>
-    <row r="26" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="26"/>
+    </row>
+    <row r="26" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23">
         <v>18</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="39" t="str">
+      <c r="C26" s="47"/>
+      <c r="D26" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E26" s="40" t="str">
+      <c r="E26" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="42" t="str">
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I26" s="25"/>
-      <c r="J26" s="47">
+      <c r="J26" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="47">
+      <c r="K26" s="24"/>
+      <c r="L26" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M26" s="25"/>
-      <c r="N26" s="47">
+      <c r="N26" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O26" s="25"/>
-      <c r="P26" s="47">
+      <c r="P26" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="25"/>
-      <c r="R26" s="47">
+      <c r="R26" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S26" s="25"/>
-      <c r="T26" s="47">
+      <c r="T26" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U26" s="25"/>
-      <c r="V26" s="47">
+      <c r="V26" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W26" s="25"/>
-      <c r="X26" s="47">
+      <c r="X26" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="36"/>
-    </row>
-    <row r="27" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y26" s="26"/>
+    </row>
+    <row r="27" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23">
         <v>19</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="39" t="str">
+      <c r="C27" s="47"/>
+      <c r="D27" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E27" s="40" t="str">
+      <c r="E27" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="42" t="str">
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I27" s="25"/>
-      <c r="J27" s="47">
+      <c r="J27" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="47">
+      <c r="K27" s="24"/>
+      <c r="L27" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M27" s="25"/>
-      <c r="N27" s="47">
+      <c r="N27" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O27" s="25"/>
-      <c r="P27" s="47">
+      <c r="P27" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="25"/>
-      <c r="R27" s="47">
+      <c r="R27" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S27" s="25"/>
-      <c r="T27" s="47">
+      <c r="T27" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U27" s="25"/>
-      <c r="V27" s="47">
+      <c r="V27" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W27" s="25"/>
-      <c r="X27" s="47">
+      <c r="X27" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="36"/>
-    </row>
-    <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y27" s="26"/>
+    </row>
+    <row r="28" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="23">
         <v>20</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="39" t="str">
+      <c r="C28" s="47"/>
+      <c r="D28" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E28" s="40" t="str">
+      <c r="E28" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="42" t="str">
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I28" s="25"/>
-      <c r="J28" s="47">
+      <c r="J28" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="47">
+      <c r="K28" s="24"/>
+      <c r="L28" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M28" s="25"/>
-      <c r="N28" s="47">
+      <c r="N28" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O28" s="25"/>
-      <c r="P28" s="47">
+      <c r="P28" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q28" s="25"/>
-      <c r="R28" s="47">
+      <c r="R28" s="59">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S28" s="25"/>
-      <c r="T28" s="47">
+      <c r="T28" s="59">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="U28" s="25"/>
-      <c r="V28" s="47">
+      <c r="V28" s="59">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W28" s="25"/>
-      <c r="X28" s="47">
+      <c r="X28" s="59">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="36"/>
-    </row>
-    <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="84" t="str">
+      <c r="Y28" s="26"/>
+    </row>
+    <row r="29" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="47" t="str">
         <f>IF(ISERROR(AVERAGE(C19:C28)),"",AVERAGE(C19:C28))</f>
         <v/>
       </c>
-      <c r="D29" s="39" t="str">
+      <c r="D29" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E29" s="40" t="str">
+      <c r="E29" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="61">
         <f>SUM(F19:F28)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="61">
         <f t="shared" ref="G29:H29" si="25">SUM(G19:G28)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="61">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="29">
         <f t="shared" ref="I29:W29" si="26">SUM(I19:I28)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="47">
+      <c r="J29" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="L29" s="47">
+      <c r="L29" s="59">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M29" s="27">
+      <c r="M29" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N29" s="47">
+      <c r="N29" s="59">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P29" s="47">
+      <c r="P29" s="59">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R29" s="47">
+      <c r="R29" s="59">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S29" s="27">
+      <c r="S29" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T29" s="47">
+      <c r="T29" s="59">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U29" s="27">
+      <c r="U29" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V29" s="47">
+      <c r="V29" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W29" s="27">
+      <c r="W29" s="29">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="X29" s="47">
+      <c r="X29" s="59">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="36"/>
-    </row>
-    <row r="30" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y29" s="26"/>
+    </row>
+    <row r="30" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="23">
         <v>21</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="39" t="str">
+      <c r="C30" s="47"/>
+      <c r="D30" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E30" s="40" t="str">
+      <c r="E30" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="42" t="str">
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I30" s="25"/>
-      <c r="J30" s="47">
+      <c r="J30" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="47">
+      <c r="K30" s="24"/>
+      <c r="L30" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M30" s="25"/>
-      <c r="N30" s="47">
+      <c r="N30" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O30" s="25"/>
-      <c r="P30" s="47">
+      <c r="P30" s="59">
         <f t="shared" ref="P30:P40" si="27">IF(ISERROR(O30/$H30),0,O30/$H30)</f>
         <v>0</v>
       </c>
       <c r="Q30" s="25"/>
-      <c r="R30" s="47">
+      <c r="R30" s="59">
         <f t="shared" ref="R30:R40" si="28">IF(ISERROR(Q30/$H30),0,Q30/$H30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="25"/>
-      <c r="T30" s="47">
+      <c r="T30" s="59">
         <f t="shared" ref="T30:T40" si="29">IF(ISERROR(S30/$H30),0,S30/$H30)</f>
         <v>0</v>
       </c>
       <c r="U30" s="25"/>
-      <c r="V30" s="47">
+      <c r="V30" s="59">
         <f t="shared" ref="V30:V40" si="30">IF(ISERROR(U30/$H30),0,U30/$H30)</f>
         <v>0</v>
       </c>
       <c r="W30" s="25"/>
-      <c r="X30" s="47">
+      <c r="X30" s="59">
         <f t="shared" ref="X30:X40" si="31">IF(ISERROR(W30/$H30),0,W30/$H30)</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="36"/>
-    </row>
-    <row r="31" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y30" s="26"/>
+    </row>
+    <row r="31" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="23">
         <v>22</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="39" t="str">
+      <c r="C31" s="47"/>
+      <c r="D31" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E31" s="40" t="str">
+      <c r="E31" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="42" t="str">
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I31" s="25"/>
-      <c r="J31" s="47">
+      <c r="J31" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="47">
+      <c r="K31" s="24"/>
+      <c r="L31" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M31" s="25"/>
-      <c r="N31" s="47">
+      <c r="N31" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O31" s="25"/>
-      <c r="P31" s="47">
+      <c r="P31" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q31" s="25"/>
-      <c r="R31" s="47">
+      <c r="R31" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S31" s="25"/>
-      <c r="T31" s="47">
+      <c r="T31" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U31" s="25"/>
-      <c r="V31" s="47">
+      <c r="V31" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W31" s="25"/>
-      <c r="X31" s="47">
+      <c r="X31" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="36"/>
-    </row>
-    <row r="32" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y31" s="26"/>
+    </row>
+    <row r="32" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="23">
         <v>23</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="39" t="str">
+      <c r="C32" s="47"/>
+      <c r="D32" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E32" s="40" t="str">
+      <c r="E32" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="42" t="str">
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I32" s="25"/>
-      <c r="J32" s="47">
+      <c r="J32" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="47">
+      <c r="K32" s="24"/>
+      <c r="L32" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M32" s="25"/>
-      <c r="N32" s="47">
+      <c r="N32" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O32" s="25"/>
-      <c r="P32" s="47">
+      <c r="P32" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q32" s="25"/>
-      <c r="R32" s="47">
+      <c r="R32" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S32" s="25"/>
-      <c r="T32" s="47">
+      <c r="T32" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U32" s="25"/>
-      <c r="V32" s="47">
+      <c r="V32" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W32" s="25"/>
-      <c r="X32" s="47">
+      <c r="X32" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="36"/>
-    </row>
-    <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y32" s="26"/>
+    </row>
+    <row r="33" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="23">
         <v>24</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="39" t="str">
+      <c r="C33" s="47"/>
+      <c r="D33" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="42" t="str">
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I33" s="25"/>
-      <c r="J33" s="47">
+      <c r="J33" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="47">
+      <c r="K33" s="24"/>
+      <c r="L33" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M33" s="25"/>
-      <c r="N33" s="47">
+      <c r="N33" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O33" s="25"/>
-      <c r="P33" s="47">
+      <c r="P33" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q33" s="25"/>
-      <c r="R33" s="47">
+      <c r="R33" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S33" s="25"/>
-      <c r="T33" s="47">
+      <c r="T33" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U33" s="25"/>
-      <c r="V33" s="47">
+      <c r="V33" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W33" s="25"/>
-      <c r="X33" s="47">
+      <c r="X33" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="36"/>
-    </row>
-    <row r="34" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="26"/>
+    </row>
+    <row r="34" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="23">
         <v>25</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="39" t="str">
+      <c r="C34" s="47"/>
+      <c r="D34" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E34" s="40" t="str">
+      <c r="E34" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="42" t="str">
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I34" s="25"/>
-      <c r="J34" s="47">
+      <c r="J34" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="47">
+      <c r="K34" s="24"/>
+      <c r="L34" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M34" s="25"/>
-      <c r="N34" s="47">
+      <c r="N34" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O34" s="25"/>
-      <c r="P34" s="47">
+      <c r="P34" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q34" s="25"/>
-      <c r="R34" s="47">
+      <c r="R34" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S34" s="25"/>
-      <c r="T34" s="47">
+      <c r="T34" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U34" s="25"/>
-      <c r="V34" s="47">
+      <c r="V34" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W34" s="25"/>
-      <c r="X34" s="47">
+      <c r="X34" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="36"/>
-    </row>
-    <row r="35" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y34" s="26"/>
+    </row>
+    <row r="35" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="23">
         <v>26</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="39" t="str">
+      <c r="C35" s="47"/>
+      <c r="D35" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E35" s="40" t="str">
+      <c r="E35" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="42" t="str">
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I35" s="25"/>
-      <c r="J35" s="47">
+      <c r="J35" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="47">
+      <c r="K35" s="24"/>
+      <c r="L35" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M35" s="25"/>
-      <c r="N35" s="47">
+      <c r="N35" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O35" s="25"/>
-      <c r="P35" s="47">
+      <c r="P35" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q35" s="25"/>
-      <c r="R35" s="47">
+      <c r="R35" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S35" s="25"/>
-      <c r="T35" s="47">
+      <c r="T35" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U35" s="25"/>
-      <c r="V35" s="47">
+      <c r="V35" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W35" s="25"/>
-      <c r="X35" s="47">
+      <c r="X35" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="36"/>
-    </row>
-    <row r="36" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y35" s="26"/>
+    </row>
+    <row r="36" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="23">
         <v>27</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="39" t="str">
+      <c r="C36" s="47"/>
+      <c r="D36" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E36" s="40" t="str">
+      <c r="E36" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="42" t="str">
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I36" s="25"/>
-      <c r="J36" s="47">
+      <c r="J36" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="47">
+      <c r="K36" s="24"/>
+      <c r="L36" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M36" s="25"/>
-      <c r="N36" s="47">
+      <c r="N36" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O36" s="25"/>
-      <c r="P36" s="47">
+      <c r="P36" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q36" s="25"/>
-      <c r="R36" s="47">
+      <c r="R36" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S36" s="25"/>
-      <c r="T36" s="47">
+      <c r="T36" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U36" s="25"/>
-      <c r="V36" s="47">
+      <c r="V36" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W36" s="25"/>
-      <c r="X36" s="47">
+      <c r="X36" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="36"/>
-    </row>
-    <row r="37" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y36" s="26"/>
+    </row>
+    <row r="37" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="23">
         <v>28</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="39" t="str">
+      <c r="C37" s="47"/>
+      <c r="D37" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E37" s="40" t="str">
+      <c r="E37" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="42" t="str">
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I37" s="25"/>
-      <c r="J37" s="47">
+      <c r="J37" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="47">
+      <c r="K37" s="24"/>
+      <c r="L37" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M37" s="25"/>
-      <c r="N37" s="47">
+      <c r="N37" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O37" s="25"/>
-      <c r="P37" s="47">
+      <c r="P37" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q37" s="25"/>
-      <c r="R37" s="47">
+      <c r="R37" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S37" s="25"/>
-      <c r="T37" s="47">
+      <c r="T37" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U37" s="25"/>
-      <c r="V37" s="47">
+      <c r="V37" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W37" s="25"/>
-      <c r="X37" s="47">
+      <c r="X37" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="36"/>
-    </row>
-    <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y37" s="26"/>
+    </row>
+    <row r="38" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="23">
         <v>29</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="39" t="str">
+      <c r="C38" s="47"/>
+      <c r="D38" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E38" s="40" t="str">
+      <c r="E38" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="42" t="str">
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I38" s="25"/>
-      <c r="J38" s="47">
+      <c r="J38" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="47">
+      <c r="K38" s="24"/>
+      <c r="L38" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M38" s="25"/>
-      <c r="N38" s="47">
+      <c r="N38" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O38" s="25"/>
-      <c r="P38" s="47">
+      <c r="P38" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q38" s="25"/>
-      <c r="R38" s="47">
+      <c r="R38" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S38" s="25"/>
-      <c r="T38" s="47">
+      <c r="T38" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U38" s="25"/>
-      <c r="V38" s="47">
+      <c r="V38" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W38" s="25"/>
-      <c r="X38" s="47">
+      <c r="X38" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="36"/>
-    </row>
-    <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="26"/>
+    </row>
+    <row r="39" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="23">
         <v>30</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="39" t="str">
+      <c r="C39" s="47"/>
+      <c r="D39" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E39" s="40" t="str">
+      <c r="E39" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="42" t="str">
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I39" s="25"/>
-      <c r="J39" s="47">
+      <c r="J39" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="47">
+      <c r="K39" s="24"/>
+      <c r="L39" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M39" s="25"/>
-      <c r="N39" s="47">
+      <c r="N39" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O39" s="25"/>
-      <c r="P39" s="47">
+      <c r="P39" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q39" s="25"/>
-      <c r="R39" s="47">
+      <c r="R39" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S39" s="25"/>
-      <c r="T39" s="47">
+      <c r="T39" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U39" s="25"/>
-      <c r="V39" s="47">
+      <c r="V39" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W39" s="25"/>
-      <c r="X39" s="47">
+      <c r="X39" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="36"/>
-    </row>
-    <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y39" s="26"/>
+    </row>
+    <row r="40" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="23">
         <v>31</v>
       </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="39" t="str">
+      <c r="C40" s="47"/>
+      <c r="D40" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E40" s="40" t="str">
+      <c r="E40" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="42" t="str">
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I40" s="25"/>
-      <c r="J40" s="47">
+      <c r="J40" s="59">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K40" s="33"/>
-      <c r="L40" s="47">
+      <c r="K40" s="24"/>
+      <c r="L40" s="59">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M40" s="25"/>
-      <c r="N40" s="47">
+      <c r="N40" s="59">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O40" s="25"/>
-      <c r="P40" s="47">
+      <c r="P40" s="59">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q40" s="25"/>
-      <c r="R40" s="47">
+      <c r="R40" s="59">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S40" s="25"/>
-      <c r="T40" s="47">
+      <c r="T40" s="59">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U40" s="25"/>
-      <c r="V40" s="47">
+      <c r="V40" s="59">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W40" s="25"/>
-      <c r="X40" s="47">
+      <c r="X40" s="59">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="36"/>
-    </row>
-    <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="84" t="str">
+      <c r="Y40" s="26"/>
+    </row>
+    <row r="41" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="47" t="str">
         <f>IF(ISERROR(AVERAGE(C30:C40)),"",AVERAGE(C30:C40))</f>
         <v/>
       </c>
-      <c r="D41" s="39" t="str">
+      <c r="D41" s="54" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="E41" s="40" t="str">
+      <c r="E41" s="55" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="61">
         <f>SUM(F30:F40)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="61">
         <f t="shared" ref="G41:H41" si="32">SUM(G30:G40)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="61">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="29">
         <f t="shared" ref="I41:W41" si="33">SUM(I30:I40)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="47">
+      <c r="J41" s="59">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K41" s="27">
+      <c r="K41" s="29">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L41" s="47">
+      <c r="L41" s="59">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M41" s="27">
+      <c r="M41" s="29">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="N41" s="47">
+      <c r="N41" s="59">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O41" s="27">
+      <c r="O41" s="29">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="P41" s="47">
+      <c r="P41" s="59">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="27">
+      <c r="Q41" s="29">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="R41" s="47">
+      <c r="R41" s="59">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S41" s="27">
+      <c r="S41" s="29">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="T41" s="47">
+      <c r="T41" s="59">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U41" s="27">
+      <c r="U41" s="29">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="V41" s="47">
+      <c r="V41" s="59">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="W41" s="27">
+      <c r="W41" s="29">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X41" s="47">
+      <c r="X41" s="59">
         <f t="shared" ref="X41" si="34">IF($H41=0,0,W41/$H41)</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="36"/>
-    </row>
-    <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="85" t="str">
+      <c r="Y41" s="26"/>
+    </row>
+    <row r="42" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="48" t="str">
         <f>IF(ISERROR(AVERAGE(C18,C29,C41)),"",AVERAGE(C18,C29,C41))</f>
         <v/>
       </c>
-      <c r="D42" s="29" t="str">
+      <c r="D42" s="31" t="str">
         <f>IF(ISERROR(F42/G42),"",F42/G42*100)</f>
         <v/>
       </c>
-      <c r="E42" s="30" t="str">
+      <c r="E42" s="62" t="str">
         <f>IF(ISERROR(D42/C42),"",IF(D42&gt;=C42,"√","×"))</f>
         <v/>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="32">
         <f>SUM(F18,F29,F41)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="32">
         <f t="shared" ref="G42:W42" si="35">SUM(G18,G29,G41)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="31">
+      <c r="H42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I42" s="31">
+      <c r="I42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="33">
         <f t="shared" ref="J42" si="36">IF($H42=0,0,I42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="31">
+      <c r="K42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="33">
         <f t="shared" ref="L42" si="37">IF($H42=0,0,K42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="31">
+      <c r="M42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N42" s="34">
+      <c r="N42" s="33">
         <f t="shared" ref="N42" si="38">IF($H42=0,0,M42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="O42" s="31">
+      <c r="O42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42" s="33">
         <f t="shared" ref="P42" si="39">IF($H42=0,0,O42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="31">
+      <c r="Q42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="R42" s="34">
+      <c r="R42" s="33">
         <f t="shared" ref="R42" si="40">IF($H42=0,0,Q42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="S42" s="31">
+      <c r="S42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="T42" s="34">
+      <c r="T42" s="33">
         <f t="shared" ref="T42" si="41">IF($H42=0,0,S42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="U42" s="31">
+      <c r="U42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V42" s="34">
+      <c r="V42" s="33">
         <f t="shared" ref="V42" si="42">IF($H42=0,0,U42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="W42" s="31">
+      <c r="W42" s="32">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="X42" s="34">
+      <c r="X42" s="33">
         <f t="shared" ref="X42" si="43">IF($H42=0,0,W42/$H42)</f>
         <v>0</v>
       </c>
-      <c r="Y42" s="38"/>
-    </row>
-    <row r="43" spans="2:25" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-    </row>
-    <row r="44" spans="2:25" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="60"/>
-    </row>
-    <row r="45" spans="2:25" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="63"/>
-    </row>
-    <row r="46" spans="2:25" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="61"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="63"/>
-    </row>
-    <row r="47" spans="2:25" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="63"/>
-    </row>
-    <row r="48" spans="2:25" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="61"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="63"/>
-    </row>
-    <row r="49" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="63"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="63"/>
-    </row>
-    <row r="51" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="61"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="63"/>
-    </row>
-    <row r="52" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="61"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="63"/>
-    </row>
-    <row r="53" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="63"/>
-    </row>
-    <row r="54" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="61"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="63"/>
-    </row>
-    <row r="55" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="61"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="63"/>
-    </row>
-    <row r="56" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="63"/>
-    </row>
-    <row r="57" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="61"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="63"/>
-    </row>
-    <row r="58" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="61"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="63"/>
-    </row>
-    <row r="59" spans="2:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="66"/>
+      <c r="Y42" s="34"/>
+    </row>
+    <row r="43" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+    </row>
+    <row r="44" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="65"/>
+    </row>
+    <row r="45" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="68"/>
+    </row>
+    <row r="46" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="68"/>
+    </row>
+    <row r="47" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="66"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="68"/>
+    </row>
+    <row r="48" spans="2:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="66"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="68"/>
+    </row>
+    <row r="49" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="68"/>
+    </row>
+    <row r="50" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="68"/>
+    </row>
+    <row r="51" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="68"/>
+    </row>
+    <row r="52" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
+    </row>
+    <row r="53" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="68"/>
+    </row>
+    <row r="54" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="68"/>
+    </row>
+    <row r="55" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="68"/>
+    </row>
+    <row r="56" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="66"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="68"/>
+    </row>
+    <row r="57" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="68"/>
+    </row>
+    <row r="58" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="68"/>
+    </row>
+    <row r="59" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="69"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -5588,7 +5862,7 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -5600,52 +5874,52 @@
   <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C18"/>
+      <selection activeCell="B6" sqref="B6:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" style="1" customWidth="1"/>
-    <col min="8" max="28" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="28" width="7.625" style="1" customWidth="1"/>
     <col min="29" max="16382" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28 16383:16384" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-    </row>
-    <row r="2" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28 16383:16384" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="2" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5666,327 +5940,327 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-    </row>
-    <row r="3" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3"/>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="XFC4"/>
       <c r="XFD4"/>
     </row>
-    <row r="5" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>50</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="XFC5"/>
       <c r="XFD5"/>
     </row>
     <row r="6" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="B6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49" t="str">
+      <c r="B6" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40" t="str">
         <f>IF(ISERROR(F6/G6),"",F6/G6*100)</f>
         <v/>
       </c>
-      <c r="E6" s="50" t="str">
+      <c r="E6" s="41" t="str">
         <f>IF(ISERROR(D6/C6),"",IF(D6&gt;=C6,"√","×"))</f>
         <v/>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="XFC6"/>
       <c r="XFD6"/>
     </row>
     <row r="7" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49" t="str">
+      <c r="B7" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40" t="str">
         <f t="shared" ref="D7:D17" si="0">IF(ISERROR(F7/G7),"",F7/G7*100)</f>
         <v/>
       </c>
-      <c r="E7" s="50" t="str">
+      <c r="E7" s="41" t="str">
         <f t="shared" ref="E7:E18" si="1">IF(ISERROR(D7/C7),"",IF(D7&gt;=C7,"√","×"))</f>
         <v/>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="XFC7"/>
       <c r="XFD7"/>
     </row>
     <row r="8" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="B8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49" t="str">
+      <c r="B8" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="50" t="str">
+      <c r="E8" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
       <c r="XFC8"/>
       <c r="XFD8"/>
     </row>
     <row r="9" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9"/>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="str">
+      <c r="B9" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="50" t="str">
+      <c r="E9" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
       <c r="XFC9"/>
       <c r="XFD9"/>
     </row>
     <row r="10" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49" t="str">
+      <c r="B10" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="50" t="str">
+      <c r="E10" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
       <c r="XFC10"/>
       <c r="XFD10"/>
     </row>
     <row r="11" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="str">
+      <c r="B11" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E11" s="50" t="str">
+      <c r="E11" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
       <c r="XFC11"/>
       <c r="XFD11"/>
     </row>
     <row r="12" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="B12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49" t="str">
+      <c r="B12" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="50" t="str">
+      <c r="E12" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="XFC12"/>
       <c r="XFD12"/>
     </row>
     <row r="13" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="B13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49" t="str">
+      <c r="B13" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E13" s="50" t="str">
+      <c r="E13" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="XFC13"/>
       <c r="XFD13"/>
     </row>
     <row r="14" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49" t="str">
+      <c r="B14" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E14" s="50" t="str">
+      <c r="E14" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="XFC14"/>
       <c r="XFD14"/>
     </row>
     <row r="15" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="B15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49" t="str">
+      <c r="B15" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E15" s="50" t="str">
+      <c r="E15" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="XFC15"/>
       <c r="XFD15"/>
     </row>
     <row r="16" spans="1:28 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
-      <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49" t="str">
+      <c r="B16" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E16" s="50" t="str">
+      <c r="E16" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="XFC16"/>
       <c r="XFD16"/>
     </row>
     <row r="17" spans="1:7 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
-      <c r="B17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49" t="str">
+      <c r="B17" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E17" s="50" t="str">
+      <c r="E17" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="XFC17"/>
       <c r="XFD17"/>
     </row>
     <row r="18" spans="1:7 16383:16384" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
-      <c r="B18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="54" t="str">
+      <c r="B18" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="43" t="str">
         <f>IF(ISERROR(AVERAGE(C6:C17)),"",AVERAGE(C6:C17))</f>
         <v/>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="44">
         <f t="shared" ref="D18" si="2">IF(G18=0,0,F18/G18*100)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="56" t="str">
+      <c r="E18" s="45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="45">
         <f>SUM(F6:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="46">
         <f>SUM(G6:G17)</f>
         <v>0</v>
       </c>
@@ -5998,7 +6272,7 @@
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6012,21 +6286,21 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="16384" width="8.875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="46">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="20">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6040,12 +6314,12 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="46"/>
+    <col min="1" max="16384" width="8.875" style="20"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>